--- a/database/industries/zeraat/simorgh/product/quarterly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D3FE7-B884-4B16-80BC-24A0B5FCFA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -225,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +419,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -430,7 +431,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -477,6 +478,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -512,6 +530,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,17 +698,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -683,7 +718,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,7 +730,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +742,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -717,7 +752,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -729,7 +764,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -741,7 +776,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -751,7 +786,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -783,7 +818,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -795,7 +830,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -819,7 +854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -843,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -865,7 +900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -889,7 +924,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -913,7 +948,7 @@
         <v>16716</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
@@ -937,7 +972,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -961,7 +996,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
@@ -985,7 +1020,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
@@ -1033,7 +1068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1092,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>27</v>
       </c>
@@ -1081,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1105,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
@@ -1129,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1186,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1198,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
@@ -1185,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
@@ -1197,7 +1232,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>36</v>
       </c>
@@ -1243,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>38</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -1287,7 +1322,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1297,7 +1332,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1307,7 +1342,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1317,7 +1352,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1339,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1349,7 +1384,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +1396,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1468,7 @@
         <v>70141</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>17</v>
       </c>
@@ -1457,7 +1492,7 @@
         <v>27961</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -1481,7 +1516,7 @@
         <v>67948</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1540,7 @@
         <v>3606395</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>21</v>
       </c>
@@ -1529,7 +1564,7 @@
         <v>175839</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>23</v>
       </c>
@@ -1553,7 +1588,7 @@
         <v>208987</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
@@ -1625,7 +1660,7 @@
         <v>63059</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
@@ -1673,7 +1708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>29</v>
       </c>
@@ -1697,7 +1732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>31</v>
       </c>
@@ -1719,7 +1754,7 @@
         <v>4220330</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +1766,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>33</v>
       </c>
@@ -1753,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>44</v>
       </c>
@@ -1765,7 +1800,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>35</v>
       </c>
@@ -1787,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>36</v>
       </c>
@@ -1811,7 +1846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>38</v>
       </c>
@@ -1835,7 +1870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
@@ -1857,7 +1892,7 @@
         <v>4220330</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1867,7 +1902,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1877,7 +1912,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1887,7 +1922,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>45</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1919,7 +1954,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>46</v>
       </c>
@@ -1931,7 +1966,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>14</v>
       </c>
@@ -1979,7 +2014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2003,7 +2038,7 @@
         <v>589420168</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>17</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>74762032</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2051,7 +2086,7 @@
         <v>4064848</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>20</v>
       </c>
@@ -2075,7 +2110,7 @@
         <v>200589299</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2099,7 +2134,7 @@
         <v>53921803</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>23</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>631380665</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>24</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>26</v>
       </c>
@@ -2195,7 +2230,7 @@
         <v>139820399</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>27</v>
       </c>
@@ -2219,7 +2254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>28</v>
       </c>
@@ -2243,7 +2278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>29</v>
       </c>
@@ -2267,7 +2302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2277,7 +2312,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2287,7 +2322,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2297,7 +2332,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>53</v>
       </c>
@@ -2319,7 +2354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2329,7 +2364,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>54</v>
       </c>
@@ -2341,7 +2376,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>14</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>16</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>17</v>
       </c>
@@ -2437,7 +2472,7 @@
         <v>-16694</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -2461,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>20</v>
       </c>
@@ -2485,7 +2520,7 @@
         <v>-2284911</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>21</v>
       </c>
@@ -2509,7 +2544,7 @@
         <v>-192436</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +2568,7 @@
         <v>-139016</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>24</v>
       </c>
@@ -2557,7 +2592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>25</v>
       </c>
@@ -2581,7 +2616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -2605,7 +2640,7 @@
         <v>-27382</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>28</v>
       </c>
@@ -2653,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>29</v>
       </c>
@@ -2677,7 +2712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>55</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>-2660439</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>56</v>
       </c>
@@ -2711,7 +2746,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>57</v>
       </c>
@@ -2733,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="16" t="s">
         <v>58</v>
       </c>
@@ -2745,7 +2780,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>59</v>
       </c>
@@ -2767,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>36</v>
       </c>
@@ -2791,7 +2826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>38</v>
       </c>
@@ -2815,7 +2850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>39</v>
       </c>
@@ -2837,7 +2872,7 @@
         <v>-2660439</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2847,7 +2882,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2857,7 +2892,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2867,7 +2902,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>60</v>
       </c>
@@ -2889,7 +2924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2899,7 +2934,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>61</v>
       </c>
@@ -2911,7 +2946,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>11</v>
       </c>
@@ -2935,7 +2970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>14</v>
       </c>
@@ -2959,7 +2994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>16</v>
       </c>
@@ -2983,7 +3018,7 @@
         <v>70141</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +3042,7 @@
         <v>11267</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>19</v>
       </c>
@@ -3031,7 +3066,7 @@
         <v>67948</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>1321484</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>-16597</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>23</v>
       </c>
@@ -3103,7 +3138,7 @@
         <v>69971</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>24</v>
       </c>
@@ -3127,7 +3162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>25</v>
       </c>
@@ -3151,7 +3186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>26</v>
       </c>
@@ -3175,7 +3210,7 @@
         <v>35677</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>27</v>
       </c>
@@ -3199,7 +3234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>28</v>
       </c>
@@ -3223,7 +3258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>29</v>
       </c>
@@ -3247,7 +3282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>62</v>
       </c>
@@ -3269,7 +3304,7 @@
         <v>1559891</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
         <v>63</v>
       </c>
@@ -3281,7 +3316,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>64</v>
       </c>
@@ -3303,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="16" t="s">
         <v>65</v>
       </c>
@@ -3315,7 +3350,7 @@
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
         <v>66</v>
       </c>
@@ -3337,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="18" t="s">
         <v>39</v>
       </c>

--- a/database/industries/zeraat/simorgh/product/quarterly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D3FE7-B884-4B16-80BC-24A0B5FCFA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C504846-E80D-43E0-BCA3-EED10A0D0B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="72">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
     <t>فصل اول منتهی به 1399/12</t>
@@ -699,16 +714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I134"/>
+  <dimension ref="B1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -717,8 +732,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,8 +749,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +766,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -751,8 +781,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -763,8 +798,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -775,8 +815,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -785,8 +830,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -807,8 +857,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -817,10 +882,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -829,17 +899,22 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>-757</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
@@ -850,16 +925,31 @@
       <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
@@ -868,164 +958,269 @@
       <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2975</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-2975</v>
+      </c>
+      <c r="J13" s="11">
         <v>281350</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>486</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1471</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45006</v>
+      </c>
+      <c r="I14" s="13">
+        <v>-44599</v>
+      </c>
+      <c r="J14" s="13">
         <v>75747</v>
       </c>
-      <c r="F14" s="13">
+      <c r="K14" s="13">
         <v>187</v>
       </c>
-      <c r="G14" s="13">
+      <c r="L14" s="13">
         <v>191</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>335</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>28020</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>15440</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-32087</v>
+      </c>
+      <c r="I15" s="11">
+        <v>73119</v>
+      </c>
+      <c r="J15" s="11">
         <v>50</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>22121</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>17126</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>19154</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>16716</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>18012</v>
+      </c>
+      <c r="F16" s="13">
+        <v>16383</v>
+      </c>
+      <c r="G16" s="13">
+        <v>15586</v>
+      </c>
+      <c r="H16" s="13">
+        <v>13898</v>
+      </c>
+      <c r="I16" s="13">
+        <v>14692</v>
+      </c>
+      <c r="J16" s="13">
         <v>14666</v>
       </c>
-      <c r="F16" s="13">
+      <c r="K16" s="13">
         <v>16673</v>
       </c>
-      <c r="G16" s="13">
+      <c r="L16" s="13">
         <v>19161</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>19526</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>17979</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>4410</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3107</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4941</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-7783</v>
+      </c>
+      <c r="I17" s="11">
+        <v>12431</v>
+      </c>
+      <c r="J17" s="11">
         <v>13</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>4660</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>5258</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>4612</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>3261</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
+        <v>467</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>240</v>
+      </c>
+      <c r="H18" s="13">
+        <v>316</v>
+      </c>
+      <c r="I18" s="13">
+        <v>83</v>
+      </c>
+      <c r="J18" s="13">
         <v>448</v>
       </c>
-      <c r="F18" s="13">
+      <c r="K18" s="13">
         <v>24</v>
       </c>
-      <c r="G18" s="13">
+      <c r="L18" s="13">
         <v>198</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
@@ -1037,19 +1232,34 @@
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
@@ -1061,67 +1271,112 @@
       <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
+        <v>590</v>
+      </c>
+      <c r="F21" s="11">
+        <v>803</v>
+      </c>
+      <c r="G21" s="11">
+        <v>42</v>
+      </c>
+      <c r="H21" s="11">
+        <v>11392</v>
+      </c>
+      <c r="I21" s="11">
+        <v>-10786</v>
+      </c>
+      <c r="J21" s="11">
         <v>3708</v>
       </c>
-      <c r="F21" s="11">
+      <c r="K21" s="11">
         <v>618</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>1448</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>614</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>13</v>
+      <c r="E22" s="13">
+        <v>0</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
@@ -1133,19 +1388,34 @@
       <c r="G23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
@@ -1157,38 +1427,68 @@
       <c r="G24" s="13">
         <v>0</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
+        <v>51228</v>
+      </c>
+      <c r="F25" s="15">
+        <v>20293</v>
+      </c>
+      <c r="G25" s="15">
+        <v>37720</v>
+      </c>
+      <c r="H25" s="15">
+        <v>33717</v>
+      </c>
+      <c r="I25" s="15">
+        <v>41965</v>
+      </c>
+      <c r="J25" s="15">
         <v>375982</v>
       </c>
-      <c r="F25" s="15">
+      <c r="K25" s="15">
         <v>44283</v>
       </c>
-      <c r="G25" s="15">
+      <c r="L25" s="15">
         <v>43382</v>
       </c>
-      <c r="H25" s="15">
+      <c r="M25" s="15">
         <v>44241</v>
       </c>
-      <c r="I25" s="15">
+      <c r="N25" s="15">
         <v>39231</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1197,10 +1497,15 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1219,10 +1524,25 @@
       <c r="I27" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -1231,10 +1551,15 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1253,13 +1578,28 @@
       <c r="I29" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19">
@@ -1268,19 +1608,34 @@
       <c r="F30" s="19">
         <v>0</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1293,36 +1648,66 @@
       <c r="G31" s="15">
         <v>0</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
+        <v>51228</v>
+      </c>
+      <c r="F32" s="19">
+        <v>20293</v>
+      </c>
+      <c r="G32" s="19">
+        <v>37720</v>
+      </c>
+      <c r="H32" s="19">
+        <v>33717</v>
+      </c>
+      <c r="I32" s="19">
+        <v>41965</v>
+      </c>
+      <c r="J32" s="19">
         <v>375982</v>
       </c>
-      <c r="F32" s="19">
+      <c r="K32" s="19">
         <v>44283</v>
       </c>
-      <c r="G32" s="19">
+      <c r="L32" s="19">
         <v>43382</v>
       </c>
-      <c r="H32" s="19">
+      <c r="M32" s="19">
         <v>44241</v>
       </c>
-      <c r="I32" s="19">
+      <c r="N32" s="19">
         <v>39231</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1331,8 +1716,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1341,8 +1731,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1351,10 +1746,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1373,8 +1773,23 @@
       <c r="I36" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1383,10 +1798,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1395,37 +1815,57 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>0</v>
+        <v>-64592</v>
       </c>
       <c r="F39" s="11">
-        <v>0</v>
+        <v>31461</v>
       </c>
       <c r="G39" s="11">
-        <v>0</v>
+        <v>-31461</v>
       </c>
       <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
         <v>160245</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
@@ -1434,166 +1874,271 @@
       <c r="F40" s="13">
         <v>0</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
+        <v>58912</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1276</v>
+      </c>
+      <c r="H41" s="11">
+        <v>20765</v>
+      </c>
+      <c r="I41" s="11">
+        <v>118777</v>
+      </c>
+      <c r="J41" s="11">
         <v>18275</v>
       </c>
-      <c r="F41" s="11">
+      <c r="K41" s="11">
         <v>14091</v>
       </c>
-      <c r="G41" s="11">
+      <c r="L41" s="11">
         <v>40785</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>168300</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>70141</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
+        <v>12009</v>
+      </c>
+      <c r="F42" s="13">
+        <v>89392</v>
+      </c>
+      <c r="G42" s="13">
+        <v>36622</v>
+      </c>
+      <c r="H42" s="13">
+        <v>7145</v>
+      </c>
+      <c r="I42" s="13">
+        <v>11635</v>
+      </c>
+      <c r="J42" s="13">
         <v>16772</v>
       </c>
-      <c r="F42" s="13">
+      <c r="K42" s="13">
         <v>11449</v>
       </c>
-      <c r="G42" s="13">
+      <c r="L42" s="13">
         <v>11496</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>20306</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>27961</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>47252</v>
+      </c>
+      <c r="F43" s="11">
+        <v>31786</v>
+      </c>
+      <c r="G43" s="11">
+        <v>31348</v>
+      </c>
+      <c r="H43" s="11">
+        <v>39643</v>
+      </c>
+      <c r="I43" s="11">
+        <v>103038</v>
+      </c>
+      <c r="J43" s="11">
         <v>72821</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>91941</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>69494</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>89212</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>67948</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>1426317</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1378896</v>
+      </c>
+      <c r="G44" s="13">
+        <v>1342742</v>
+      </c>
+      <c r="H44" s="13">
+        <v>1672946</v>
+      </c>
+      <c r="I44" s="13">
+        <v>2060850</v>
+      </c>
+      <c r="J44" s="13">
         <v>2319232</v>
       </c>
-      <c r="F44" s="13">
+      <c r="K44" s="13">
         <v>2271295</v>
       </c>
-      <c r="G44" s="13">
+      <c r="L44" s="13">
         <v>3490557</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>4152929</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>3606395</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>126200</v>
+      </c>
+      <c r="F45" s="11">
+        <v>88625</v>
+      </c>
+      <c r="G45" s="11">
+        <v>49542</v>
+      </c>
+      <c r="H45" s="11">
+        <v>57253</v>
+      </c>
+      <c r="I45" s="11">
+        <v>12445</v>
+      </c>
+      <c r="J45" s="11">
         <v>148874</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>297128</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>354478</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>321542</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>175839</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
+        <v>91639</v>
+      </c>
+      <c r="F46" s="13">
+        <v>76000</v>
+      </c>
+      <c r="G46" s="13">
+        <v>49863</v>
+      </c>
+      <c r="H46" s="13">
+        <v>-80419</v>
+      </c>
+      <c r="I46" s="13">
+        <v>24501</v>
+      </c>
+      <c r="J46" s="13">
         <v>13</v>
       </c>
-      <c r="F46" s="13">
+      <c r="K46" s="13">
         <v>11114</v>
       </c>
-      <c r="G46" s="13">
+      <c r="L46" s="13">
         <v>107988</v>
       </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
+      <c r="M46" s="13">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13">
         <v>208987</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
@@ -1605,19 +2150,34 @@
       <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
@@ -1629,67 +2189,112 @@
       <c r="G48" s="13">
         <v>0</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>20708</v>
+      </c>
+      <c r="F49" s="11">
+        <v>28279</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1743</v>
+      </c>
+      <c r="H49" s="11">
+        <v>8331</v>
+      </c>
+      <c r="I49" s="11">
+        <v>35699</v>
+      </c>
+      <c r="J49" s="11">
         <v>40967</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>74115</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>174564</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>85622</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>63059</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>13</v>
+      <c r="E50" s="13">
+        <v>0</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
@@ -1701,19 +2306,34 @@
       <c r="G51" s="11">
         <v>0</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
@@ -1725,38 +2345,68 @@
       <c r="G52" s="13">
         <v>0</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
+        <v>0</v>
+      </c>
+      <c r="K52" s="13">
+        <v>0</v>
+      </c>
+      <c r="L52" s="13">
+        <v>0</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
+        <v>1718445</v>
+      </c>
+      <c r="F53" s="15">
+        <v>1724439</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1481675</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1725664</v>
+      </c>
+      <c r="I53" s="15">
+        <v>2366945</v>
+      </c>
+      <c r="J53" s="15">
         <v>2616954</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>2771133</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>4249362</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>4998156</v>
       </c>
-      <c r="I53" s="15">
+      <c r="N53" s="15">
         <v>4220330</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -1765,10 +2415,15 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1787,10 +2442,25 @@
       <c r="I55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -1799,10 +2469,15 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1821,37 +2496,67 @@
       <c r="I57" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="15">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0</v>
+      </c>
+      <c r="M57" s="15">
+        <v>0</v>
+      </c>
+      <c r="N57" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19">
+        <v>-2761</v>
+      </c>
+      <c r="F58" s="19">
+        <v>-41872</v>
+      </c>
+      <c r="G58" s="19">
+        <v>-2198</v>
+      </c>
+      <c r="H58" s="19">
+        <v>-1359</v>
+      </c>
+      <c r="I58" s="19">
+        <v>-2360</v>
+      </c>
+      <c r="J58" s="19">
         <v>-5066</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>-3718</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
@@ -1863,36 +2568,66 @@
       <c r="G59" s="15">
         <v>0</v>
       </c>
-      <c r="H59" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H59" s="15">
+        <v>0</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0</v>
+      </c>
+      <c r="J59" s="15">
+        <v>0</v>
+      </c>
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15">
+        <v>0</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19">
+        <v>1715684</v>
+      </c>
+      <c r="F60" s="19">
+        <v>1682567</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1479477</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1724305</v>
+      </c>
+      <c r="I60" s="19">
+        <v>2364585</v>
+      </c>
+      <c r="J60" s="19">
         <v>2611888</v>
       </c>
-      <c r="F60" s="19">
+      <c r="K60" s="19">
         <v>2767415</v>
       </c>
-      <c r="G60" s="19">
+      <c r="L60" s="19">
         <v>4249362</v>
       </c>
-      <c r="H60" s="19">
+      <c r="M60" s="19">
         <v>4998156</v>
       </c>
-      <c r="I60" s="19">
+      <c r="N60" s="19">
         <v>4220330</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1901,8 +2636,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1911,8 +2651,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1921,10 +2666,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1943,8 +2693,23 @@
       <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1953,10 +2718,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1965,344 +2735,559 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
+      <c r="E67" s="11">
+        <v>85326288</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
+      <c r="E69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11">
+        <v>6979832</v>
+      </c>
+      <c r="I69" s="11">
+        <v>-39925042</v>
+      </c>
+      <c r="J69" s="11">
         <v>64955</v>
       </c>
-      <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="11">
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="11">
         <v>589420168</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
+        <v>24709877</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="13">
+        <v>24895989</v>
+      </c>
+      <c r="H70" s="13">
+        <v>158757</v>
+      </c>
+      <c r="I70" s="13">
+        <v>-260880</v>
+      </c>
+      <c r="J70" s="13">
         <v>221421</v>
       </c>
-      <c r="F70" s="13">
+      <c r="K70" s="13">
         <v>61224599</v>
       </c>
-      <c r="G70" s="13">
+      <c r="L70" s="13">
         <v>60188482</v>
       </c>
-      <c r="H70" s="13">
+      <c r="M70" s="13">
         <v>60614925</v>
       </c>
-      <c r="I70" s="13">
+      <c r="N70" s="13">
         <v>74762032</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>1686367</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="11">
+        <v>2030311</v>
+      </c>
+      <c r="H71" s="11">
+        <v>-1235485</v>
+      </c>
+      <c r="I71" s="11">
+        <v>1409182</v>
+      </c>
+      <c r="J71" s="11">
         <v>1456420000</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>4156277</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>4057807</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>4657617</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>4064848</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>79187042</v>
+      </c>
+      <c r="F72" s="13">
+        <v>84166270</v>
+      </c>
+      <c r="G72" s="13">
+        <v>86150520</v>
+      </c>
+      <c r="H72" s="13">
+        <v>123316592</v>
+      </c>
+      <c r="I72" s="13">
+        <v>140270215</v>
+      </c>
+      <c r="J72" s="13">
         <v>158136643</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>136225934</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>182169876</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>212687135</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>200589299</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>28616780</v>
+      </c>
+      <c r="F73" s="11">
+        <v>28524300</v>
+      </c>
+      <c r="G73" s="11">
+        <v>10026715</v>
+      </c>
+      <c r="H73" s="11">
+        <v>-7356161</v>
+      </c>
+      <c r="I73" s="11">
+        <v>1001126</v>
+      </c>
+      <c r="J73" s="11">
         <v>11451846154</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>63761373</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>67416889</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>69718560</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>53921803</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>196229122</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="13">
+        <v>207762500</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-254490506</v>
+      </c>
+      <c r="I74" s="13">
+        <v>-452237069</v>
+      </c>
+      <c r="J74" s="13">
         <v>29018</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>463083333</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>545393939</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="13">
+      <c r="M74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="13">
         <v>631380665</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>35098305</v>
+      </c>
+      <c r="F77" s="11">
+        <v>35221074</v>
+      </c>
+      <c r="G77" s="11">
+        <v>41500000</v>
+      </c>
+      <c r="H77" s="11">
+        <v>731303</v>
+      </c>
+      <c r="I77" s="11">
+        <v>-3309753</v>
+      </c>
+      <c r="J77" s="11">
         <v>11048274</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>119927184</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>120555249</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>139449511</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>139820399</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2311,8 +3296,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2321,8 +3311,13 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2331,10 +3326,15 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2353,8 +3353,23 @@
       <c r="I84" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2363,10 +3378,15 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2375,37 +3395,57 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>28356</v>
       </c>
       <c r="F87" s="11">
-        <v>0</v>
+        <v>-16415</v>
       </c>
       <c r="G87" s="11">
-        <v>0</v>
+        <v>16132</v>
       </c>
       <c r="H87" s="11">
+        <v>283</v>
+      </c>
+      <c r="I87" s="11">
+        <v>0</v>
+      </c>
+      <c r="J87" s="11">
+        <v>0</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11">
+        <v>0</v>
+      </c>
+      <c r="M87" s="11">
         <v>-235720</v>
       </c>
-      <c r="I87" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N87" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
@@ -2414,26 +3454,41 @@
       <c r="F88" s="13">
         <v>0</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G88" s="13">
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
+        <v>0</v>
+      </c>
+      <c r="J88" s="13">
+        <v>0</v>
+      </c>
+      <c r="K88" s="13">
+        <v>0</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>0</v>
+        <v>-69358</v>
       </c>
       <c r="F89" s="11">
         <v>0</v>
@@ -2442,138 +3497,228 @@
         <v>0</v>
       </c>
       <c r="H89" s="11">
-        <v>0</v>
+        <v>-23727</v>
       </c>
       <c r="I89" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23727</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11">
+        <v>0</v>
+      </c>
+      <c r="M89" s="11">
+        <v>0</v>
+      </c>
+      <c r="N89" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
+        <v>-22995</v>
+      </c>
+      <c r="F90" s="13">
+        <v>-27579</v>
+      </c>
+      <c r="G90" s="13">
+        <v>-32485</v>
+      </c>
+      <c r="H90" s="13">
+        <v>-5508</v>
+      </c>
+      <c r="I90" s="13">
+        <v>-6719</v>
+      </c>
+      <c r="J90" s="13">
         <v>-9162</v>
       </c>
-      <c r="F90" s="13">
+      <c r="K90" s="13">
         <v>-6698</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>-7218</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>-14142</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>-16694</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>0</v>
+        <v>1212</v>
       </c>
       <c r="F91" s="11">
-        <v>0</v>
+        <v>-8058</v>
       </c>
       <c r="G91" s="11">
-        <v>0</v>
+        <v>-3358</v>
       </c>
       <c r="H91" s="11">
-        <v>0</v>
+        <v>-40829</v>
       </c>
       <c r="I91" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>52245</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11">
+        <v>0</v>
+      </c>
+      <c r="M91" s="11">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
+        <v>-1173469</v>
+      </c>
+      <c r="F92" s="13">
+        <v>-1119436</v>
+      </c>
+      <c r="G92" s="13">
+        <v>-1077774</v>
+      </c>
+      <c r="H92" s="13">
+        <v>-1294025</v>
+      </c>
+      <c r="I92" s="13">
+        <v>-1232224</v>
+      </c>
+      <c r="J92" s="13">
         <v>-1457955</v>
       </c>
-      <c r="F92" s="13">
+      <c r="K92" s="13">
         <v>-1880598</v>
       </c>
-      <c r="G92" s="13">
+      <c r="L92" s="13">
         <v>-2280519</v>
       </c>
-      <c r="H92" s="13">
+      <c r="M92" s="13">
         <v>-2314483</v>
       </c>
-      <c r="I92" s="13">
+      <c r="N92" s="13">
         <v>-2284911</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>-64774</v>
+      </c>
+      <c r="F93" s="11">
+        <v>-101383</v>
+      </c>
+      <c r="G93" s="11">
+        <v>-137997</v>
+      </c>
+      <c r="H93" s="11">
+        <v>-82718</v>
+      </c>
+      <c r="I93" s="11">
+        <v>-64226</v>
+      </c>
+      <c r="J93" s="11">
         <v>-148000</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>-126393</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>-189301</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>-200971</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>-192436</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>0</v>
+        <v>-90762</v>
       </c>
       <c r="F94" s="13">
-        <v>0</v>
+        <v>-82762</v>
       </c>
       <c r="G94" s="13">
-        <v>0</v>
+        <v>-56493</v>
       </c>
       <c r="H94" s="13">
-        <v>0</v>
+        <v>134734</v>
       </c>
       <c r="I94" s="13">
+        <v>-208578</v>
+      </c>
+      <c r="J94" s="13">
+        <v>0</v>
+      </c>
+      <c r="K94" s="13">
+        <v>0</v>
+      </c>
+      <c r="L94" s="13">
+        <v>0</v>
+      </c>
+      <c r="M94" s="13">
+        <v>0</v>
+      </c>
+      <c r="N94" s="13">
         <v>-139016</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
@@ -2585,19 +3730,34 @@
       <c r="G95" s="11">
         <v>0</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
+      </c>
+      <c r="L95" s="11">
+        <v>0</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
@@ -2609,67 +3769,112 @@
       <c r="G96" s="13">
         <v>0</v>
       </c>
-      <c r="H96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H96" s="13">
+        <v>0</v>
+      </c>
+      <c r="I96" s="13">
+        <v>0</v>
+      </c>
+      <c r="J96" s="13">
+        <v>0</v>
+      </c>
+      <c r="K96" s="13">
+        <v>0</v>
+      </c>
+      <c r="L96" s="13">
+        <v>0</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>-71849</v>
+      </c>
+      <c r="F97" s="11">
+        <v>-27126</v>
+      </c>
+      <c r="G97" s="11">
+        <v>-1205</v>
+      </c>
+      <c r="H97" s="11">
+        <v>-40595</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1715</v>
+      </c>
+      <c r="J97" s="11">
         <v>-29882</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>-50298</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>-112131</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>-53043</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>-27382</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>13</v>
+      <c r="E98" s="13">
+        <v>0</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
@@ -2681,19 +3886,34 @@
       <c r="G99" s="11">
         <v>0</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H99" s="11">
+        <v>0</v>
+      </c>
+      <c r="I99" s="11">
+        <v>0</v>
+      </c>
+      <c r="J99" s="11">
+        <v>0</v>
+      </c>
+      <c r="K99" s="11">
+        <v>0</v>
+      </c>
+      <c r="L99" s="11">
+        <v>0</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
@@ -2705,38 +3925,68 @@
       <c r="G100" s="13">
         <v>0</v>
       </c>
-      <c r="H100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="13">
+        <v>0</v>
+      </c>
+      <c r="L100" s="13">
+        <v>0</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
+        <v>-1463639</v>
+      </c>
+      <c r="F101" s="15">
+        <v>-1382759</v>
+      </c>
+      <c r="G101" s="15">
+        <v>-1293180</v>
+      </c>
+      <c r="H101" s="15">
+        <v>-1352385</v>
+      </c>
+      <c r="I101" s="15">
+        <v>-1434060</v>
+      </c>
+      <c r="J101" s="15">
         <v>-1644999</v>
       </c>
-      <c r="F101" s="15">
+      <c r="K101" s="15">
         <v>-2063987</v>
       </c>
-      <c r="G101" s="15">
+      <c r="L101" s="15">
         <v>-2589169</v>
       </c>
-      <c r="H101" s="15">
+      <c r="M101" s="15">
         <v>-2818359</v>
       </c>
-      <c r="I101" s="15">
+      <c r="N101" s="15">
         <v>-2660439</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -2745,10 +3995,15 @@
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
@@ -2767,10 +4022,25 @@
       <c r="I103" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="15">
+        <v>0</v>
+      </c>
+      <c r="K103" s="15">
+        <v>0</v>
+      </c>
+      <c r="L103" s="15">
+        <v>0</v>
+      </c>
+      <c r="M103" s="15">
+        <v>0</v>
+      </c>
+      <c r="N103" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -2779,10 +4049,15 @@
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
@@ -2801,13 +4076,28 @@
       <c r="I105" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="15">
+        <v>0</v>
+      </c>
+      <c r="K105" s="15">
+        <v>0</v>
+      </c>
+      <c r="L105" s="15">
+        <v>0</v>
+      </c>
+      <c r="M105" s="15">
+        <v>0</v>
+      </c>
+      <c r="N105" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19">
@@ -2816,22 +4106,37 @@
       <c r="F106" s="19">
         <v>0</v>
       </c>
-      <c r="G106" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G106" s="19">
+        <v>0</v>
+      </c>
+      <c r="H106" s="19">
+        <v>0</v>
+      </c>
+      <c r="I106" s="19">
+        <v>0</v>
+      </c>
+      <c r="J106" s="19">
+        <v>0</v>
+      </c>
+      <c r="K106" s="19">
+        <v>0</v>
+      </c>
+      <c r="L106" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
@@ -2843,36 +4148,66 @@
       <c r="G107" s="15">
         <v>0</v>
       </c>
-      <c r="H107" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H107" s="15">
+        <v>0</v>
+      </c>
+      <c r="I107" s="15">
+        <v>0</v>
+      </c>
+      <c r="J107" s="15">
+        <v>0</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0</v>
+      </c>
+      <c r="L107" s="15">
+        <v>0</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19">
+        <v>-1463639</v>
+      </c>
+      <c r="F108" s="19">
+        <v>-1382759</v>
+      </c>
+      <c r="G108" s="19">
+        <v>-1293180</v>
+      </c>
+      <c r="H108" s="19">
+        <v>-1352385</v>
+      </c>
+      <c r="I108" s="19">
+        <v>-1434060</v>
+      </c>
+      <c r="J108" s="19">
         <v>-1644999</v>
       </c>
-      <c r="F108" s="19">
+      <c r="K108" s="19">
         <v>-2063987</v>
       </c>
-      <c r="G108" s="19">
+      <c r="L108" s="19">
         <v>-2589169</v>
       </c>
-      <c r="H108" s="19">
+      <c r="M108" s="19">
         <v>-2818359</v>
       </c>
-      <c r="I108" s="19">
+      <c r="N108" s="19">
         <v>-2660439</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2881,8 +4216,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2891,8 +4231,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2901,10 +4246,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2923,8 +4273,23 @@
       <c r="I112" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2933,10 +4298,15 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -2945,37 +4315,57 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>0</v>
+        <v>95437</v>
       </c>
       <c r="F115" s="11">
-        <v>0</v>
+        <v>15046</v>
       </c>
       <c r="G115" s="11">
-        <v>0</v>
+        <v>-15329</v>
       </c>
       <c r="H115" s="11">
+        <v>283</v>
+      </c>
+      <c r="I115" s="11">
+        <v>0</v>
+      </c>
+      <c r="J115" s="11">
+        <v>0</v>
+      </c>
+      <c r="K115" s="11">
+        <v>0</v>
+      </c>
+      <c r="L115" s="11">
+        <v>0</v>
+      </c>
+      <c r="M115" s="11">
         <v>-75475</v>
       </c>
-      <c r="I115" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N115" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
@@ -2984,166 +4374,271 @@
       <c r="F116" s="13">
         <v>0</v>
       </c>
-      <c r="G116" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G116" s="13">
+        <v>0</v>
+      </c>
+      <c r="H116" s="13">
+        <v>0</v>
+      </c>
+      <c r="I116" s="13">
+        <v>0</v>
+      </c>
+      <c r="J116" s="13">
+        <v>0</v>
+      </c>
+      <c r="K116" s="13">
+        <v>0</v>
+      </c>
+      <c r="L116" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N116" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>-8076</v>
+      </c>
+      <c r="F117" s="11">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11">
+        <v>77660</v>
+      </c>
+      <c r="H117" s="11">
+        <v>-2962</v>
+      </c>
+      <c r="I117" s="11">
+        <v>142504</v>
+      </c>
+      <c r="J117" s="11">
         <v>18275</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>26827</v>
       </c>
-      <c r="G117" s="11">
+      <c r="L117" s="11">
         <v>40785</v>
       </c>
-      <c r="H117" s="11">
+      <c r="M117" s="11">
         <v>168300</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>70141</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13">
+        <v>-10987</v>
+      </c>
+      <c r="F118" s="13">
+        <v>61813</v>
+      </c>
+      <c r="G118" s="13">
+        <v>-55323</v>
+      </c>
+      <c r="H118" s="13">
+        <v>1637</v>
+      </c>
+      <c r="I118" s="13">
+        <v>4916</v>
+      </c>
+      <c r="J118" s="13">
         <v>7610</v>
       </c>
-      <c r="F118" s="13">
+      <c r="K118" s="13">
         <v>4751</v>
       </c>
-      <c r="G118" s="13">
+      <c r="L118" s="13">
         <v>4278</v>
       </c>
-      <c r="H118" s="13">
+      <c r="M118" s="13">
         <v>6164</v>
       </c>
-      <c r="I118" s="13">
+      <c r="N118" s="13">
         <v>11267</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>52572</v>
+      </c>
+      <c r="F119" s="11">
+        <v>23728</v>
+      </c>
+      <c r="G119" s="11">
+        <v>28086</v>
+      </c>
+      <c r="H119" s="11">
+        <v>-1186</v>
+      </c>
+      <c r="I119" s="11">
+        <v>155283</v>
+      </c>
+      <c r="J119" s="11">
         <v>72821</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>91951</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>69494</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>89212</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>67948</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
+        <v>265747</v>
+      </c>
+      <c r="F120" s="13">
+        <v>259460</v>
+      </c>
+      <c r="G120" s="13">
+        <v>265118</v>
+      </c>
+      <c r="H120" s="13">
+        <v>419829</v>
+      </c>
+      <c r="I120" s="13">
+        <v>828626</v>
+      </c>
+      <c r="J120" s="13">
         <v>861277</v>
       </c>
-      <c r="F120" s="13">
+      <c r="K120" s="13">
         <v>404275</v>
       </c>
-      <c r="G120" s="13">
+      <c r="L120" s="13">
         <v>1210038</v>
       </c>
-      <c r="H120" s="13">
+      <c r="M120" s="13">
         <v>1838446</v>
       </c>
-      <c r="I120" s="13">
+      <c r="N120" s="13">
         <v>1321484</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>63230</v>
+      </c>
+      <c r="F121" s="11">
+        <v>-12758</v>
+      </c>
+      <c r="G121" s="11">
+        <v>-88362</v>
+      </c>
+      <c r="H121" s="11">
+        <v>-25465</v>
+      </c>
+      <c r="I121" s="11">
+        <v>-51781</v>
+      </c>
+      <c r="J121" s="11">
         <v>874</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>151960</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>165177</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>120571</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>-16597</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13">
+        <v>877</v>
+      </c>
+      <c r="F122" s="13">
+        <v>-6762</v>
+      </c>
+      <c r="G122" s="13">
+        <v>6762</v>
+      </c>
+      <c r="H122" s="13">
+        <v>54315</v>
+      </c>
+      <c r="I122" s="13">
+        <v>-103659</v>
+      </c>
+      <c r="J122" s="13">
         <v>13</v>
       </c>
-      <c r="F122" s="13">
+      <c r="K122" s="13">
         <v>11114</v>
       </c>
-      <c r="G122" s="13">
+      <c r="L122" s="13">
         <v>107988</v>
       </c>
-      <c r="H122" s="13">
-        <v>0</v>
-      </c>
-      <c r="I122" s="13">
+      <c r="M122" s="13">
+        <v>0</v>
+      </c>
+      <c r="N122" s="13">
         <v>69971</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
@@ -3155,19 +4650,34 @@
       <c r="G123" s="11">
         <v>0</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H123" s="11">
+        <v>0</v>
+      </c>
+      <c r="I123" s="11">
+        <v>0</v>
+      </c>
+      <c r="J123" s="11">
+        <v>0</v>
+      </c>
+      <c r="K123" s="11">
+        <v>0</v>
+      </c>
+      <c r="L123" s="11">
+        <v>0</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13">
@@ -3179,67 +4689,112 @@
       <c r="G124" s="13">
         <v>0</v>
       </c>
-      <c r="H124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H124" s="13">
+        <v>0</v>
+      </c>
+      <c r="I124" s="13">
+        <v>0</v>
+      </c>
+      <c r="J124" s="13">
+        <v>0</v>
+      </c>
+      <c r="K124" s="13">
+        <v>0</v>
+      </c>
+      <c r="L124" s="13">
+        <v>0</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>-47693</v>
+      </c>
+      <c r="F125" s="11">
+        <v>1153</v>
+      </c>
+      <c r="G125" s="11">
+        <v>1344</v>
+      </c>
+      <c r="H125" s="11">
+        <v>-32264</v>
+      </c>
+      <c r="I125" s="11">
+        <v>37414</v>
+      </c>
+      <c r="J125" s="11">
         <v>11085</v>
       </c>
-      <c r="F125" s="11">
+      <c r="K125" s="11">
         <v>23817</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>62433</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>32579</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>35677</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D126" s="13"/>
-      <c r="E126" s="13" t="s">
-        <v>13</v>
+      <c r="E126" s="13">
+        <v>0</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
@@ -3251,19 +4806,34 @@
       <c r="G127" s="11">
         <v>0</v>
       </c>
-      <c r="H127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H127" s="11">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11">
+        <v>0</v>
+      </c>
+      <c r="J127" s="11">
+        <v>0</v>
+      </c>
+      <c r="K127" s="11">
+        <v>0</v>
+      </c>
+      <c r="L127" s="11">
+        <v>0</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
@@ -3275,38 +4845,68 @@
       <c r="G128" s="13">
         <v>0</v>
       </c>
-      <c r="H128" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H128" s="13">
+        <v>0</v>
+      </c>
+      <c r="I128" s="13">
+        <v>0</v>
+      </c>
+      <c r="J128" s="13">
+        <v>0</v>
+      </c>
+      <c r="K128" s="13">
+        <v>0</v>
+      </c>
+      <c r="L128" s="13">
+        <v>0</v>
+      </c>
+      <c r="M128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
+        <v>411107</v>
+      </c>
+      <c r="F129" s="15">
+        <v>341680</v>
+      </c>
+      <c r="G129" s="15">
+        <v>219956</v>
+      </c>
+      <c r="H129" s="15">
+        <v>414187</v>
+      </c>
+      <c r="I129" s="15">
+        <v>1013303</v>
+      </c>
+      <c r="J129" s="15">
         <v>971955</v>
       </c>
-      <c r="F129" s="15">
+      <c r="K129" s="15">
         <v>714695</v>
       </c>
-      <c r="G129" s="15">
+      <c r="L129" s="15">
         <v>1660193</v>
       </c>
-      <c r="H129" s="15">
+      <c r="M129" s="15">
         <v>2179797</v>
       </c>
-      <c r="I129" s="15">
+      <c r="N129" s="15">
         <v>1559891</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -3315,10 +4915,15 @@
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
@@ -3337,10 +4942,25 @@
       <c r="I131" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="15">
+        <v>0</v>
+      </c>
+      <c r="K131" s="15">
+        <v>0</v>
+      </c>
+      <c r="L131" s="15">
+        <v>0</v>
+      </c>
+      <c r="M131" s="15">
+        <v>0</v>
+      </c>
+      <c r="N131" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -3349,10 +4969,15 @@
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
@@ -3371,26 +4996,56 @@
       <c r="I133" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="15">
+        <v>0</v>
+      </c>
+      <c r="K133" s="15">
+        <v>0</v>
+      </c>
+      <c r="L133" s="15">
+        <v>0</v>
+      </c>
+      <c r="M133" s="15">
+        <v>0</v>
+      </c>
+      <c r="N133" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19">
+        <v>411107</v>
+      </c>
+      <c r="F134" s="19">
+        <v>341680</v>
+      </c>
+      <c r="G134" s="19">
+        <v>219956</v>
+      </c>
+      <c r="H134" s="19">
+        <v>414187</v>
+      </c>
+      <c r="I134" s="19">
+        <v>1013303</v>
+      </c>
+      <c r="J134" s="19">
         <v>971955</v>
       </c>
-      <c r="F134" s="19">
+      <c r="K134" s="19">
         <v>714695</v>
       </c>
-      <c r="G134" s="19">
+      <c r="L134" s="19">
         <v>1660193</v>
       </c>
-      <c r="H134" s="19">
+      <c r="M134" s="19">
         <v>2179797</v>
       </c>
-      <c r="I134" s="19">
+      <c r="N134" s="19">
         <v>1559891</v>
       </c>
     </row>

--- a/database/industries/zeraat/simorgh/product/quarterly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C504846-E80D-43E0-BCA3-EED10A0D0B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55580E1F-CFF2-4801-A81C-C669C8827C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -718,12 +718,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -738,7 +738,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -787,7 +787,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -836,7 +836,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -873,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -888,7 +888,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -905,7 +905,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -944,7 +944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -983,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>16716</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>36</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>38</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>39</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>41</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>43</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>44</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1737,7 +1737,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1752,7 +1752,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1804,7 +1804,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>21</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>70141</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>27961</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>24</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>67948</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>3606395</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>26</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>175839</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>28</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>208987</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>29</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>63059</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>32</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>33</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>34</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>36</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>4220330</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>48</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>38</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>49</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>40</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>41</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>43</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
         <v>44</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>4220330</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2642,7 +2642,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2657,7 +2657,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2672,7 +2672,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>50</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2724,7 +2724,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>51</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>16</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>19</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>589420168</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>22</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>74762032</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>24</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>4064848</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>25</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>200589299</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>26</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>53921803</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>28</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>631380665</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>29</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>30</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>31</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>139820399</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>32</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>33</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>34</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3302,7 +3302,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3317,7 +3317,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3332,7 +3332,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>58</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3384,7 +3384,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>59</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>19</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>22</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>-16694</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>24</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>25</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>-2284911</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>26</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>-192436</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>28</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>-139016</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>29</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>30</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>31</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>-27382</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>32</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>33</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>34</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>60</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>-2660439</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>61</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>62</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="16" t="s">
         <v>63</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>64</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>41</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>43</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>44</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>-2660439</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4222,7 +4222,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4237,7 +4237,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4252,7 +4252,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>65</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4304,7 +4304,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>66</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>16</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>19</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>21</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>70141</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>22</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>11267</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>24</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>67948</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>25</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>1321484</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>-16597</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>28</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>69971</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>29</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>30</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>31</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>35677</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>32</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>33</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>34</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>67</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>1559891</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
         <v>68</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>69</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="16" t="s">
         <v>70</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
         <v>71</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="18" t="s">
         <v>44</v>
       </c>
